--- a/templates-examples/minfit_template.xlsx
+++ b/templates-examples/minfit_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,15 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">x1</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
+    <t xml:space="preserve">x2</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
@@ -222,8 +225,8 @@
   </sheetPr>
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1419,7 +1422,7 @@
   </sheetPr>
   <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1431,7 +1434,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
